--- a/TestInput/TestDataInput.xlsx
+++ b/TestInput/TestDataInput.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="2" r:id="rId1"/>
     <sheet name="AdminLogin" sheetId="3" r:id="rId2"/>
     <sheet name="TestData" sheetId="4" r:id="rId3"/>
+    <sheet name="EmployeeRegistration" sheetId="5" r:id="rId4"/>
+    <sheet name="UserRegistration" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>TCID</t>
   </si>
@@ -121,6 +123,87 @@
   </si>
   <si>
     <t>closeapplication</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmpFirstName</t>
+  </si>
+  <si>
+    <t>EmpLastName</t>
+  </si>
+  <si>
+    <t>ConfirmPwd</t>
+  </si>
+  <si>
+    <t>Uname</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>startBrowser</t>
+  </si>
+  <si>
+    <t>openApplication</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>userReg</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Employee Registration</t>
+  </si>
+  <si>
+    <t>empReg</t>
+  </si>
+  <si>
+    <t>srikanth</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Bala srikanth</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Capture the emp_id</t>
+  </si>
+  <si>
+    <t>capturedata</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Validating table</t>
+  </si>
+  <si>
+    <t>tablevalidation</t>
   </si>
 </sst>
 </file>
@@ -143,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +289,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -220,10 +297,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,9 +575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -537,40 +613,40 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -579,10 +655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,7 +693,7 @@
       <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
@@ -629,7 +705,7 @@
       <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
@@ -641,7 +717,7 @@
       <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
@@ -653,11 +729,11 @@
       <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -665,10 +741,7 @@
       <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="7"/>
+      <c r="D6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -677,19 +750,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -699,42 +776,344 @@
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>